--- a/DocumentUnderstanding/Extracted Data/CombinedDocument1.xlsx
+++ b/DocumentUnderstanding/Extracted Data/CombinedDocument1.xlsx
@@ -15,12 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <x:si>
-    <x:t>Signature</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yes</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <x:si>
+    <x:t>Borrower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Address Line 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Address Line 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHASTAN PAGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>466 WEST 4525 SOUTH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OGDEN, UT 84405</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -377,14 +389,26 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
+    <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -407,14 +431,26 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
+    <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
